--- a/REGULAR/OJT/DIMARANAN, ARNOLD.xlsx
+++ b/REGULAR/OJT/DIMARANAN, ARNOLD.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2925758-43AB-49D0-9080-3EF178C71853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1183,7 +1182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1578,6 +1577,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1610,12 +1615,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1894,25 +1893,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K516" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K516" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2219,103 +2218,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K516"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A340" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="H139" sqref="H139:K152"/>
+      <pane ySplit="3990" topLeftCell="A494" activePane="bottomLeft"/>
+      <selection activeCell="H139" sqref="H139:K152"/>
+      <selection pane="bottomLeft" activeCell="C503" sqref="C503:G504"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="60"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58">
+      <c r="J3" s="60">
         <v>204304676</v>
       </c>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2323,7 +2322,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2336,24 +2335,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2397,7 +2396,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>43.953000000000088</v>
+        <v>46.453000000000088</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2407,12 +2406,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>53.25</v>
+        <v>55.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>61</v>
       </c>
@@ -2434,7 +2433,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>35597</v>
       </c>
@@ -2454,7 +2453,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>35612</v>
       </c>
@@ -2474,7 +2473,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>35643</v>
       </c>
@@ -2494,7 +2493,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>35674</v>
       </c>
@@ -2514,7 +2513,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>35704</v>
       </c>
@@ -2534,7 +2533,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>35735</v>
       </c>
@@ -2554,7 +2553,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>35765</v>
       </c>
@@ -2574,7 +2573,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>62</v>
       </c>
@@ -2592,7 +2591,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>35796</v>
       </c>
@@ -2616,7 +2615,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>35827</v>
       </c>
@@ -2640,7 +2639,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>35855</v>
       </c>
@@ -2664,7 +2663,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>35886</v>
       </c>
@@ -2688,7 +2687,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>35916</v>
       </c>
@@ -2714,7 +2713,7 @@
         <v>35937</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>67</v>
@@ -2734,7 +2733,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="48"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>35947</v>
       </c>
@@ -2760,7 +2759,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
         <v>70</v>
@@ -2780,7 +2779,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>35977</v>
       </c>
@@ -2806,7 +2805,7 @@
         <v>35986</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>36008</v>
       </c>
@@ -2830,7 +2829,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>36039</v>
       </c>
@@ -2856,7 +2855,7 @@
         <v>36056</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>74</v>
@@ -2876,7 +2875,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="48"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>36069</v>
       </c>
@@ -2902,7 +2901,7 @@
         <v>36076</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>45</v>
@@ -2924,7 +2923,7 @@
         <v>36082</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>75</v>
@@ -2944,7 +2943,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="48"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>36100</v>
       </c>
@@ -2964,7 +2963,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>36130</v>
       </c>
@@ -2988,7 +2987,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>77</v>
@@ -3008,7 +3007,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>78</v>
       </c>
@@ -3026,7 +3025,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>36161</v>
       </c>
@@ -3050,7 +3049,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>36192</v>
       </c>
@@ -3076,7 +3075,7 @@
         <v>36193</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>36220</v>
       </c>
@@ -3100,7 +3099,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>36251</v>
       </c>
@@ -3126,7 +3125,7 @@
         <v>35893</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>82</v>
@@ -3148,7 +3147,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>36281</v>
       </c>
@@ -3174,7 +3173,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>36312</v>
       </c>
@@ -3198,7 +3197,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>36342</v>
       </c>
@@ -3222,7 +3221,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>36373</v>
       </c>
@@ -3246,7 +3245,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>36404</v>
       </c>
@@ -3270,7 +3269,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>36434</v>
       </c>
@@ -3296,7 +3295,7 @@
         <v>36451</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>36465</v>
       </c>
@@ -3322,7 +3321,7 @@
         <v>36483</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>45</v>
@@ -3344,7 +3343,7 @@
         <v>36490</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>89</v>
@@ -3364,7 +3363,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>36495</v>
       </c>
@@ -3388,7 +3387,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>94</v>
@@ -3408,7 +3407,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
         <v>91</v>
       </c>
@@ -3426,7 +3425,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>36526</v>
       </c>
@@ -3446,7 +3445,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>36557</v>
       </c>
@@ -3472,7 +3471,7 @@
         <v>36573</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>95</v>
@@ -3492,7 +3491,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="48"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>36586</v>
       </c>
@@ -3516,7 +3515,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>92</v>
@@ -3536,7 +3535,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>36617</v>
       </c>
@@ -3560,7 +3559,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>101</v>
@@ -3580,7 +3579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>36647</v>
       </c>
@@ -3604,7 +3603,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>51</v>
@@ -3626,7 +3625,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>36678</v>
       </c>
@@ -3646,7 +3645,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>36708</v>
       </c>
@@ -3666,7 +3665,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>36739</v>
       </c>
@@ -3686,7 +3685,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>36770</v>
       </c>
@@ -3712,7 +3711,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>36800</v>
       </c>
@@ -3732,7 +3731,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>36831</v>
       </c>
@@ -3752,7 +3751,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>36861</v>
       </c>
@@ -3776,7 +3775,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
         <v>103</v>
       </c>
@@ -3794,7 +3793,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>36892</v>
       </c>
@@ -3818,7 +3817,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>36923</v>
       </c>
@@ -3844,7 +3843,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>36951</v>
       </c>
@@ -3864,7 +3863,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>36982</v>
       </c>
@@ -3890,7 +3889,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>37012</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>37043</v>
       </c>
@@ -3934,7 +3933,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>37073</v>
       </c>
@@ -3958,7 +3957,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>113</v>
@@ -3980,7 +3979,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>37104</v>
       </c>
@@ -4004,7 +4003,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>45</v>
@@ -4026,7 +4025,7 @@
         <v>37105</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>37135</v>
       </c>
@@ -4046,7 +4045,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>37165</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>48</v>
@@ -4094,7 +4093,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>46</v>
@@ -4116,7 +4115,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>113</v>
@@ -4138,7 +4137,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>37196</v>
       </c>
@@ -4158,7 +4157,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>37226</v>
       </c>
@@ -4178,7 +4177,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="47" t="s">
         <v>119</v>
       </c>
@@ -4196,7 +4195,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>37257</v>
       </c>
@@ -4220,7 +4219,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>37288</v>
       </c>
@@ -4246,7 +4245,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>51</v>
@@ -4268,7 +4267,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>126</v>
@@ -4288,7 +4287,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>37316</v>
       </c>
@@ -4312,7 +4311,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>127</v>
@@ -4332,7 +4331,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>37347</v>
       </c>
@@ -4356,7 +4355,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>37377</v>
       </c>
@@ -4380,7 +4379,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>37408</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>37438</v>
       </c>
@@ -4426,7 +4425,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>37469</v>
       </c>
@@ -4446,7 +4445,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>37500</v>
       </c>
@@ -4466,7 +4465,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>37530</v>
       </c>
@@ -4492,7 +4491,7 @@
         <v>37530</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>37561</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>113</v>
@@ -4540,7 +4539,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>37591</v>
       </c>
@@ -4564,7 +4563,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="47" t="s">
         <v>133</v>
       </c>
@@ -4582,7 +4581,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>37622</v>
       </c>
@@ -4602,7 +4601,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>37653</v>
       </c>
@@ -4622,7 +4621,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>37681</v>
       </c>
@@ -4642,7 +4641,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>37712</v>
       </c>
@@ -4662,7 +4661,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>37742</v>
       </c>
@@ -4682,7 +4681,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>37773</v>
       </c>
@@ -4702,7 +4701,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>37803</v>
       </c>
@@ -4722,7 +4721,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>37834</v>
       </c>
@@ -4742,7 +4741,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>37865</v>
       </c>
@@ -4766,7 +4765,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>37895</v>
       </c>
@@ -4790,7 +4789,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>37926</v>
       </c>
@@ -4814,7 +4813,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>37956</v>
       </c>
@@ -4838,7 +4837,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
         <v>137</v>
       </c>
@@ -4856,7 +4855,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>37987</v>
       </c>
@@ -4876,7 +4875,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>38018</v>
       </c>
@@ -4896,7 +4895,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>38047</v>
       </c>
@@ -4916,7 +4915,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>38078</v>
       </c>
@@ -4936,7 +4935,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>38108</v>
       </c>
@@ -4960,7 +4959,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>140</v>
@@ -4982,7 +4981,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>38139</v>
       </c>
@@ -5006,7 +5005,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>46</v>
@@ -5028,7 +5027,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>38169</v>
       </c>
@@ -5052,7 +5051,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>51</v>
@@ -5074,7 +5073,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>38200</v>
       </c>
@@ -5098,7 +5097,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>38231</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>147</v>
@@ -5144,7 +5143,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>38261</v>
       </c>
@@ -5170,7 +5169,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>48</v>
@@ -5192,7 +5191,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>151</v>
@@ -5212,7 +5211,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>38292</v>
       </c>
@@ -5236,7 +5235,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>38322</v>
       </c>
@@ -5260,7 +5259,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="47" t="s">
         <v>137</v>
       </c>
@@ -5278,7 +5277,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>38353</v>
       </c>
@@ -5302,7 +5301,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>38384</v>
       </c>
@@ -5326,7 +5325,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>38412</v>
       </c>
@@ -5350,7 +5349,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>38443</v>
       </c>
@@ -5374,7 +5373,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>38473</v>
       </c>
@@ -5398,7 +5397,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>38504</v>
       </c>
@@ -5422,7 +5421,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>38534</v>
       </c>
@@ -5446,7 +5445,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>38565</v>
       </c>
@@ -5470,7 +5469,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>38596</v>
       </c>
@@ -5494,7 +5493,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>38626</v>
       </c>
@@ -5518,7 +5517,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>38657</v>
       </c>
@@ -5544,7 +5543,7 @@
         <v>38681</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>163</v>
@@ -5564,7 +5563,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="48"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>38687</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="47" t="s">
         <v>166</v>
       </c>
@@ -5608,7 +5607,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>38718</v>
       </c>
@@ -5632,7 +5631,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>38749</v>
       </c>
@@ -5652,7 +5651,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>38777</v>
       </c>
@@ -5678,7 +5677,7 @@
         <v>38426</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>92</v>
@@ -5698,7 +5697,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>38808</v>
       </c>
@@ -5718,7 +5717,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>38838</v>
       </c>
@@ -5744,7 +5743,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>38869</v>
       </c>
@@ -5768,7 +5767,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>38899</v>
       </c>
@@ -5788,7 +5787,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>38930</v>
       </c>
@@ -5812,7 +5811,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>38961</v>
       </c>
@@ -5836,7 +5835,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>38991</v>
       </c>
@@ -5860,7 +5859,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>39022</v>
       </c>
@@ -5880,7 +5879,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>39052</v>
       </c>
@@ -5904,7 +5903,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="47" t="s">
         <v>173</v>
       </c>
@@ -5924,7 +5923,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="47" t="s">
         <v>174</v>
       </c>
@@ -5942,7 +5941,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <v>39494</v>
       </c>
@@ -5966,7 +5965,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>39508</v>
       </c>
@@ -5990,7 +5989,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>178</v>
@@ -6010,7 +6009,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>39539</v>
       </c>
@@ -6036,7 +6035,7 @@
         <v>39546</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>39569</v>
       </c>
@@ -6060,7 +6059,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>39600</v>
       </c>
@@ -6086,7 +6085,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>181</v>
@@ -6106,7 +6105,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>39630</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>39653</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>182</v>
@@ -6152,7 +6151,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="48"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>39661</v>
       </c>
@@ -6176,7 +6175,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>39692</v>
       </c>
@@ -6200,7 +6199,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>39722</v>
       </c>
@@ -6226,7 +6225,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>186</v>
@@ -6246,7 +6245,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <v>39753</v>
       </c>
@@ -6270,7 +6269,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>39783</v>
       </c>
@@ -6294,7 +6293,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>187</v>
@@ -6314,7 +6313,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="47" t="s">
         <v>188</v>
       </c>
@@ -6332,7 +6331,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>39814</v>
       </c>
@@ -6356,7 +6355,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>39845</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>39853</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>184</v>
@@ -6402,7 +6401,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="48"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>39873</v>
       </c>
@@ -6428,7 +6427,7 @@
         <v>39881</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>92</v>
@@ -6448,7 +6447,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>191</v>
@@ -6468,7 +6467,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="48"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>39904</v>
       </c>
@@ -6494,7 +6493,7 @@
         <v>39917</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>45</v>
@@ -6516,7 +6515,7 @@
         <v>39933</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>192</v>
@@ -6536,7 +6535,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="48"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>39934</v>
       </c>
@@ -6562,7 +6561,7 @@
         <v>39962</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>193</v>
@@ -6582,7 +6581,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="48"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>39965</v>
       </c>
@@ -6608,7 +6607,7 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>194</v>
@@ -6628,7 +6627,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="48"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>39995</v>
       </c>
@@ -6654,7 +6653,7 @@
         <v>40022</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>195</v>
@@ -6674,7 +6673,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="48"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>40026</v>
       </c>
@@ -6700,7 +6699,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>45</v>
@@ -6722,7 +6721,7 @@
         <v>40053</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>45</v>
@@ -6744,7 +6743,7 @@
         <v>40066</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>197</v>
@@ -6764,7 +6763,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <v>40057</v>
       </c>
@@ -6788,7 +6787,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>40087</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>40087</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>51</v>
@@ -6836,7 +6835,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>94</v>
@@ -6856,7 +6855,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>201</v>
@@ -6876,7 +6875,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="48"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>40118</v>
       </c>
@@ -6902,7 +6901,7 @@
         <v>40136</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>202</v>
@@ -6922,7 +6921,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="48"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>203</v>
@@ -6944,7 +6943,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>40148</v>
       </c>
@@ -6968,7 +6967,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="47" t="s">
         <v>206</v>
       </c>
@@ -6986,7 +6985,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>40179</v>
       </c>
@@ -7012,7 +7011,7 @@
         <v>40192</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>207</v>
@@ -7032,7 +7031,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="48"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>40210</v>
       </c>
@@ -7058,7 +7057,7 @@
         <v>40228</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>51</v>
@@ -7080,7 +7079,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>208</v>
@@ -7100,7 +7099,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <v>40238</v>
       </c>
@@ -7126,7 +7125,7 @@
         <v>40246</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>51</v>
@@ -7148,7 +7147,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>92</v>
@@ -7168,7 +7167,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>92</v>
@@ -7188,7 +7187,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>45</v>
@@ -7210,7 +7209,7 @@
         <v>40268</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>212</v>
@@ -7230,7 +7229,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="48"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>40269</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>40283</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>213</v>
@@ -7276,7 +7275,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="48"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>40299</v>
       </c>
@@ -7302,7 +7301,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>51</v>
@@ -7324,7 +7323,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>215</v>
@@ -7344,7 +7343,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>40330</v>
       </c>
@@ -7370,7 +7369,7 @@
         <v>40331</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>45</v>
@@ -7392,7 +7391,7 @@
         <v>40344</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>217</v>
@@ -7412,7 +7411,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="48"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>40360</v>
       </c>
@@ -7436,7 +7435,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>40391</v>
       </c>
@@ -7462,7 +7461,7 @@
         <v>40403</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>45</v>
@@ -7484,7 +7483,7 @@
         <v>40417</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>219</v>
@@ -7504,7 +7503,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="48"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>40422</v>
       </c>
@@ -7530,7 +7529,7 @@
         <v>40451</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>220</v>
@@ -7550,7 +7549,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="48"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>40452</v>
       </c>
@@ -7576,7 +7575,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>45</v>
@@ -7598,7 +7597,7 @@
         <v>40477</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>222</v>
@@ -7618,7 +7617,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>40483</v>
       </c>
@@ -7644,7 +7643,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>45</v>
@@ -7666,7 +7665,7 @@
         <v>40487</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>224</v>
@@ -7686,7 +7685,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>40513</v>
       </c>
@@ -7712,7 +7711,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>227</v>
@@ -7732,7 +7731,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="47" t="s">
         <v>225</v>
       </c>
@@ -7750,7 +7749,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>40544</v>
       </c>
@@ -7776,7 +7775,7 @@
         <v>40546</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>45</v>
@@ -7798,7 +7797,7 @@
         <v>40548</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>45</v>
@@ -7820,7 +7819,7 @@
         <v>40564</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>228</v>
@@ -7840,7 +7839,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="48"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>40575</v>
       </c>
@@ -7866,7 +7865,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>51</v>
@@ -7888,7 +7887,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>229</v>
@@ -7908,7 +7907,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>40603</v>
       </c>
@@ -7932,7 +7931,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>45</v>
@@ -7954,7 +7953,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>45</v>
@@ -7976,7 +7975,7 @@
         <v>40632</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>92</v>
@@ -7996,7 +7995,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>234</v>
@@ -8016,7 +8015,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>40634</v>
       </c>
@@ -8042,7 +8041,7 @@
         <v>40641</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>235</v>
@@ -8062,7 +8061,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="48"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>40664</v>
       </c>
@@ -8086,7 +8085,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>113</v>
@@ -8108,7 +8107,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>40695</v>
       </c>
@@ -8134,7 +8133,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>45</v>
@@ -8156,7 +8155,7 @@
         <v>40696</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>45</v>
@@ -8178,7 +8177,7 @@
         <v>40722</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>239</v>
@@ -8198,7 +8197,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="48"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <v>40725</v>
       </c>
@@ -8222,7 +8221,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>40756</v>
       </c>
@@ -8248,7 +8247,7 @@
         <v>40777</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>241</v>
@@ -8268,7 +8267,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="48"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>40787</v>
       </c>
@@ -8292,7 +8291,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>113</v>
@@ -8314,7 +8313,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>40817</v>
       </c>
@@ -8338,7 +8337,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>113</v>
@@ -8360,7 +8359,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>40848</v>
       </c>
@@ -8386,7 +8385,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>246</v>
@@ -8406,7 +8405,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <v>40878</v>
       </c>
@@ -8432,7 +8431,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>46</v>
@@ -8454,7 +8453,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>249</v>
@@ -8474,7 +8473,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="47" t="s">
         <v>250</v>
       </c>
@@ -8492,7 +8491,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <v>40909</v>
       </c>
@@ -8516,7 +8515,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>40940</v>
       </c>
@@ -8540,7 +8539,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>40969</v>
       </c>
@@ -8564,7 +8563,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>46</v>
@@ -8586,7 +8585,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>253</v>
@@ -8606,7 +8605,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>41000</v>
       </c>
@@ -8630,7 +8629,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>41030</v>
       </c>
@@ -8656,7 +8655,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>257</v>
@@ -8674,7 +8673,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>41061</v>
       </c>
@@ -8700,7 +8699,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>258</v>
@@ -8720,7 +8719,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="48"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>41091</v>
       </c>
@@ -8746,7 +8745,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>46</v>
@@ -8768,7 +8767,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>261</v>
@@ -8788,7 +8787,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>41122</v>
       </c>
@@ -8812,7 +8811,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>45</v>
@@ -8834,7 +8833,7 @@
         <v>41127</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>41153</v>
       </c>
@@ -8860,7 +8859,7 @@
         <v>41172</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>263</v>
@@ -8880,7 +8879,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="48"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>41183</v>
       </c>
@@ -8906,7 +8905,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>265</v>
@@ -8926,7 +8925,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>41214</v>
       </c>
@@ -8952,7 +8951,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>267</v>
@@ -8972,7 +8971,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>41244</v>
       </c>
@@ -8998,7 +8997,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>269</v>
@@ -9018,7 +9017,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="47" t="s">
         <v>270</v>
       </c>
@@ -9036,7 +9035,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>41275</v>
       </c>
@@ -9060,7 +9059,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>45</v>
@@ -9082,7 +9081,7 @@
         <v>41292</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>41306</v>
       </c>
@@ -9106,7 +9105,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>41334</v>
       </c>
@@ -9130,7 +9129,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>45</v>
@@ -9152,7 +9151,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>273</v>
@@ -9172,7 +9171,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>41365</v>
       </c>
@@ -9198,7 +9197,7 @@
         <v>41379</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>274</v>
@@ -9218,7 +9217,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="48"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>41395</v>
       </c>
@@ -9242,7 +9241,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>41426</v>
       </c>
@@ -9266,7 +9265,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>41456</v>
       </c>
@@ -9290,7 +9289,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>41487</v>
       </c>
@@ -9314,7 +9313,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>41518</v>
       </c>
@@ -9338,7 +9337,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <v>41548</v>
       </c>
@@ -9364,7 +9363,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>281</v>
@@ -9384,7 +9383,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <v>41579</v>
       </c>
@@ -9410,7 +9409,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>52</v>
@@ -9432,7 +9431,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>283</v>
@@ -9452,7 +9451,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <v>41609</v>
       </c>
@@ -9476,7 +9475,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>113</v>
@@ -9498,7 +9497,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="47" t="s">
         <v>287</v>
       </c>
@@ -9516,7 +9515,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <v>41640</v>
       </c>
@@ -9540,7 +9539,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>41671</v>
       </c>
@@ -9564,7 +9563,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <v>41699</v>
       </c>
@@ -9588,7 +9587,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>46</v>
@@ -9610,7 +9609,7 @@
         <v>46838</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>290</v>
@@ -9630,7 +9629,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <v>41730</v>
       </c>
@@ -9654,7 +9653,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <v>41760</v>
       </c>
@@ -9678,7 +9677,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <v>41791</v>
       </c>
@@ -9702,7 +9701,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <v>41821</v>
       </c>
@@ -9726,7 +9725,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <v>41852</v>
       </c>
@@ -9750,7 +9749,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <v>41883</v>
       </c>
@@ -9774,7 +9773,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <v>41913</v>
       </c>
@@ -9798,7 +9797,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>113</v>
@@ -9820,7 +9819,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>41944</v>
       </c>
@@ -9846,7 +9845,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>299</v>
@@ -9866,7 +9865,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <v>41974</v>
       </c>
@@ -9892,7 +9891,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>77</v>
@@ -9914,7 +9913,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>302</v>
@@ -9934,7 +9933,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="47" t="s">
         <v>303</v>
       </c>
@@ -9952,7 +9951,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <v>42005</v>
       </c>
@@ -9978,7 +9977,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <v>42036</v>
       </c>
@@ -9998,7 +9997,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <v>42064</v>
       </c>
@@ -10022,7 +10021,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>45</v>
@@ -10044,7 +10043,7 @@
         <v>42088</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <v>42095</v>
       </c>
@@ -10064,7 +10063,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <v>42125</v>
       </c>
@@ -10090,7 +10089,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <v>42156</v>
       </c>
@@ -10110,7 +10109,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <v>42186</v>
       </c>
@@ -10130,7 +10129,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <v>42217</v>
       </c>
@@ -10150,7 +10149,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <v>42248</v>
       </c>
@@ -10170,7 +10169,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <v>42278</v>
       </c>
@@ -10190,7 +10189,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <v>42309</v>
       </c>
@@ -10210,7 +10209,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <v>42339</v>
       </c>
@@ -10234,7 +10233,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="47" t="s">
         <v>306</v>
       </c>
@@ -10252,7 +10251,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <v>42370</v>
       </c>
@@ -10272,7 +10271,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <v>42401</v>
       </c>
@@ -10292,7 +10291,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <v>42430</v>
       </c>
@@ -10318,7 +10317,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>45</v>
@@ -10340,7 +10339,7 @@
         <v>42445</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <v>42461</v>
       </c>
@@ -10360,7 +10359,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <v>42491</v>
       </c>
@@ -10380,7 +10379,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <v>42522</v>
       </c>
@@ -10400,7 +10399,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <v>42552</v>
       </c>
@@ -10420,7 +10419,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <v>42583</v>
       </c>
@@ -10440,7 +10439,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <v>42614</v>
       </c>
@@ -10466,7 +10465,7 @@
         <v>42636</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <v>42644</v>
       </c>
@@ -10492,7 +10491,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <v>42675</v>
       </c>
@@ -10512,7 +10511,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
         <v>42705</v>
       </c>
@@ -10536,7 +10535,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="47" t="s">
         <v>309</v>
       </c>
@@ -10554,7 +10553,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23">
         <v>42736</v>
       </c>
@@ -10574,7 +10573,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <v>42767</v>
       </c>
@@ -10598,7 +10597,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <v>42795</v>
       </c>
@@ -10622,7 +10621,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <v>42826</v>
       </c>
@@ -10642,7 +10641,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <v>42856</v>
       </c>
@@ -10662,7 +10661,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23">
         <v>42887</v>
       </c>
@@ -10682,7 +10681,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <v>42917</v>
       </c>
@@ -10702,7 +10701,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <v>42948</v>
       </c>
@@ -10722,7 +10721,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23">
         <v>42979</v>
       </c>
@@ -10742,7 +10741,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <v>43009</v>
       </c>
@@ -10768,7 +10767,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>312</v>
@@ -10790,7 +10789,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23">
         <v>43040</v>
       </c>
@@ -10810,7 +10809,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <v>43070</v>
       </c>
@@ -10830,7 +10829,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="47" t="s">
         <v>44</v>
       </c>
@@ -10848,7 +10847,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="39">
         <v>43101</v>
       </c>
@@ -10874,7 +10873,7 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="39"/>
       <c r="B388" s="20" t="s">
         <v>45</v>
@@ -10896,7 +10895,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="39"/>
       <c r="B389" s="20" t="s">
         <v>315</v>
@@ -10916,7 +10915,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39">
         <v>43132</v>
       </c>
@@ -10940,7 +10939,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="39">
         <v>43160</v>
       </c>
@@ -10966,7 +10965,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="39"/>
       <c r="B392" s="20" t="s">
         <v>316</v>
@@ -10988,7 +10987,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>43191</v>
       </c>
@@ -11005,11 +11004,11 @@
       <c r="H393" s="42"/>
       <c r="I393" s="9"/>
       <c r="J393" s="12"/>
-      <c r="K393" s="65">
+      <c r="K393" s="54">
         <v>43224</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="39"/>
       <c r="B394" s="20" t="s">
         <v>374</v>
@@ -11029,7 +11028,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="39">
         <v>43221</v>
       </c>
@@ -11055,7 +11054,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="39"/>
       <c r="B396" s="20" t="s">
         <v>315</v>
@@ -11075,7 +11074,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="39"/>
       <c r="B397" s="20" t="s">
         <v>45</v>
@@ -11093,11 +11092,11 @@
       </c>
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
-      <c r="K397" s="66">
+      <c r="K397" s="55">
         <v>43217</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="39"/>
       <c r="B398" s="20" t="s">
         <v>46</v>
@@ -11119,7 +11118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="39"/>
       <c r="B399" s="20" t="s">
         <v>314</v>
@@ -11141,7 +11140,7 @@
         <v>43106</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="39">
         <v>43252</v>
       </c>
@@ -11167,7 +11166,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="39">
         <v>43282</v>
       </c>
@@ -11193,7 +11192,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="39"/>
       <c r="B402" s="20" t="s">
         <v>318</v>
@@ -11215,7 +11214,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="39">
         <v>43313</v>
       </c>
@@ -11241,7 +11240,7 @@
         <v>43381</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="39"/>
       <c r="B404" s="20" t="s">
         <v>45</v>
@@ -11259,11 +11258,11 @@
       </c>
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
-      <c r="K404" s="66">
+      <c r="K404" s="55">
         <v>43319</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="39">
         <v>43344</v>
       </c>
@@ -11289,7 +11288,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="39">
         <v>43374</v>
       </c>
@@ -11315,7 +11314,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="39"/>
       <c r="B407" s="20" t="s">
         <v>320</v>
@@ -11337,7 +11336,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="39">
         <v>43405</v>
       </c>
@@ -11365,7 +11364,7 @@
         <v>43354</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="39"/>
       <c r="B409" s="20" t="s">
         <v>314</v>
@@ -11387,7 +11386,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="39"/>
       <c r="B410" s="20" t="s">
         <v>325</v>
@@ -11409,7 +11408,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="39">
         <v>43435</v>
       </c>
@@ -11435,7 +11434,7 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="39"/>
       <c r="B412" s="20" t="s">
         <v>48</v>
@@ -11457,7 +11456,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="47" t="s">
         <v>50</v>
       </c>
@@ -11475,7 +11474,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="39">
         <v>43466</v>
       </c>
@@ -11503,7 +11502,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="39"/>
       <c r="B415" s="20" t="s">
         <v>319</v>
@@ -11525,7 +11524,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="39"/>
       <c r="B416" s="20" t="s">
         <v>319</v>
@@ -11547,7 +11546,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="39"/>
       <c r="B417" s="20" t="s">
         <v>319</v>
@@ -11569,7 +11568,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="39">
         <v>43497</v>
       </c>
@@ -11595,7 +11594,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="39"/>
       <c r="B419" s="20" t="s">
         <v>321</v>
@@ -11613,7 +11612,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="39"/>
       <c r="B420" s="20" t="s">
         <v>322</v>
@@ -11637,7 +11636,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="39"/>
       <c r="B421" s="20" t="s">
         <v>322</v>
@@ -11657,7 +11656,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="39">
         <v>43525</v>
       </c>
@@ -11683,7 +11682,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="39"/>
       <c r="B423" s="20" t="s">
         <v>314</v>
@@ -11707,7 +11706,7 @@
         <v>43772</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39"/>
       <c r="B424" s="20" t="s">
         <v>323</v>
@@ -11727,7 +11726,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="39"/>
       <c r="B425" s="20" t="s">
         <v>322</v>
@@ -11747,7 +11746,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="39"/>
       <c r="B426" s="20" t="s">
         <v>314</v>
@@ -11769,7 +11768,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="39"/>
       <c r="B427" s="20" t="s">
         <v>324</v>
@@ -11791,7 +11790,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="39"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11811,7 +11810,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="39">
         <v>43556</v>
       </c>
@@ -11833,11 +11832,11 @@
       </c>
       <c r="I429" s="9"/>
       <c r="J429" s="11"/>
-      <c r="K429" s="66">
+      <c r="K429" s="55">
         <v>43613</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="39">
         <v>43586</v>
       </c>
@@ -11863,7 +11862,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="39">
         <v>43617</v>
       </c>
@@ -11885,7 +11884,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="39"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11905,7 +11904,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="39"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11925,7 +11924,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="39"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11945,7 +11944,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="39"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11965,7 +11964,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="39"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11985,7 +11984,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="39"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -12005,7 +12004,7 @@
         <v>43593</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="39"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -12025,7 +12024,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39">
         <v>43647</v>
       </c>
@@ -12045,7 +12044,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="39">
         <v>43678</v>
       </c>
@@ -12065,7 +12064,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="39">
         <v>43709</v>
       </c>
@@ -12091,7 +12090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="39">
         <v>43739</v>
       </c>
@@ -12117,7 +12116,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="39"/>
       <c r="B443" s="20" t="s">
         <v>316</v>
@@ -12139,7 +12138,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="39">
         <v>43770</v>
       </c>
@@ -12165,7 +12164,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39"/>
       <c r="B445" s="20" t="s">
         <v>325</v>
@@ -12187,7 +12186,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="39"/>
       <c r="B446" s="20" t="s">
         <v>314</v>
@@ -12209,7 +12208,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="39"/>
       <c r="B447" s="20" t="s">
         <v>325</v>
@@ -12231,7 +12230,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39"/>
       <c r="B448" s="20" t="s">
         <v>55</v>
@@ -12253,7 +12252,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39">
         <v>43800</v>
       </c>
@@ -12273,7 +12272,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23" t="s">
         <v>326</v>
       </c>
@@ -12291,7 +12290,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="39">
         <v>43831</v>
       </c>
@@ -12317,7 +12316,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="39"/>
       <c r="B452" s="20" t="s">
         <v>327</v>
@@ -12337,7 +12336,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="39"/>
       <c r="B453" s="20" t="s">
         <v>376</v>
@@ -12359,7 +12358,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="39"/>
       <c r="B454" s="20" t="s">
         <v>51</v>
@@ -12381,7 +12380,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="39">
         <v>43862</v>
       </c>
@@ -12407,7 +12406,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="39"/>
       <c r="B456" s="20" t="s">
         <v>51</v>
@@ -12429,7 +12428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="39">
         <v>43891</v>
       </c>
@@ -12449,7 +12448,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="39">
         <v>43922</v>
       </c>
@@ -12469,7 +12468,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="39">
         <v>43952</v>
       </c>
@@ -12489,7 +12488,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="39">
         <v>43983</v>
       </c>
@@ -12515,7 +12514,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="39"/>
       <c r="B461" s="20" t="s">
         <v>324</v>
@@ -12537,7 +12536,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="39">
         <v>44013</v>
       </c>
@@ -12563,7 +12562,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="39"/>
       <c r="B463" s="20" t="s">
         <v>328</v>
@@ -12585,7 +12584,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="39"/>
       <c r="B464" s="20" t="s">
         <v>319</v>
@@ -12609,7 +12608,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="39">
         <v>44044</v>
       </c>
@@ -12629,7 +12628,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="39">
         <v>44075</v>
       </c>
@@ -12655,7 +12654,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="39">
         <v>44105</v>
       </c>
@@ -12675,7 +12674,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="39">
         <v>44136</v>
       </c>
@@ -12695,7 +12694,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="39">
         <v>44166</v>
       </c>
@@ -12715,7 +12714,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="47" t="s">
         <v>57</v>
       </c>
@@ -12733,7 +12732,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="39">
         <v>44206</v>
       </c>
@@ -12753,7 +12752,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="39">
         <v>44228</v>
       </c>
@@ -12775,7 +12774,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="39">
         <v>44256</v>
       </c>
@@ -12797,7 +12796,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="39">
         <v>44287</v>
       </c>
@@ -12817,7 +12816,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="39">
         <v>44317</v>
       </c>
@@ -12837,7 +12836,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="39">
         <v>44348</v>
       </c>
@@ -12861,7 +12860,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="39"/>
       <c r="B477" s="20" t="s">
         <v>314</v>
@@ -12883,7 +12882,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="39"/>
       <c r="B478" s="20" t="s">
         <v>58</v>
@@ -12905,7 +12904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="39">
         <v>44378</v>
       </c>
@@ -12925,7 +12924,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="39">
         <v>44409</v>
       </c>
@@ -12945,7 +12944,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="39">
         <v>44440</v>
       </c>
@@ -12965,7 +12964,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="39">
         <v>44470</v>
       </c>
@@ -12985,7 +12984,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="39">
         <v>44501</v>
       </c>
@@ -13005,7 +13004,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="39">
         <v>44531</v>
       </c>
@@ -13029,7 +13028,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="47" t="s">
         <v>60</v>
       </c>
@@ -13047,7 +13046,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="39">
         <v>44562</v>
       </c>
@@ -13067,7 +13066,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="39">
         <v>44593</v>
       </c>
@@ -13087,7 +13086,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="39">
         <v>44621</v>
       </c>
@@ -13107,7 +13106,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="39">
         <v>44652</v>
       </c>
@@ -13127,7 +13126,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="39">
         <v>44682</v>
       </c>
@@ -13147,7 +13146,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="39">
         <v>44713</v>
       </c>
@@ -13167,7 +13166,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="39">
         <v>44743</v>
       </c>
@@ -13187,7 +13186,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="39">
         <v>44774</v>
       </c>
@@ -13207,7 +13206,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="39">
         <v>44805</v>
       </c>
@@ -13227,7 +13226,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="39">
         <v>44835</v>
       </c>
@@ -13247,7 +13246,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="39">
         <v>44866</v>
       </c>
@@ -13267,7 +13266,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="39">
         <v>44896</v>
       </c>
@@ -13291,7 +13290,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="47" t="s">
         <v>377</v>
       </c>
@@ -13309,7 +13308,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="39">
         <v>44927</v>
       </c>
@@ -13329,7 +13328,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="39">
         <v>44958</v>
       </c>
@@ -13349,7 +13348,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="39">
         <v>44986</v>
       </c>
@@ -13369,7 +13368,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="39">
         <v>45017</v>
       </c>
@@ -13389,43 +13388,47 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="39">
         <v>45047</v>
       </c>
       <c r="B503" s="20"/>
-      <c r="C503" s="13"/>
+      <c r="C503" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D503" s="38"/>
       <c r="E503" s="9"/>
       <c r="F503" s="20"/>
-      <c r="G503" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G503" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H503" s="38"/>
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="39">
         <v>45078</v>
       </c>
       <c r="B504" s="20"/>
-      <c r="C504" s="13"/>
+      <c r="C504" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D504" s="38"/>
       <c r="E504" s="9"/>
       <c r="F504" s="20"/>
-      <c r="G504" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G504" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H504" s="38"/>
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="39">
         <v>45108</v>
       </c>
@@ -13443,7 +13446,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="39">
         <v>45139</v>
       </c>
@@ -13461,7 +13464,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="39"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -13477,7 +13480,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="39"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -13493,7 +13496,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="39"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -13509,7 +13512,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="39"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -13525,7 +13528,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="39"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -13541,7 +13544,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="39"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -13557,7 +13560,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="39"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -13573,7 +13576,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="39"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -13589,7 +13592,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="39"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -13605,7 +13608,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="15"/>
       <c r="C516" s="41"/>
@@ -13636,10 +13639,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13662,41 +13665,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="62" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="J1" s="63" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13725,7 +13728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -13751,17 +13754,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -13775,14 +13778,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="45"/>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -13809,7 +13812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -13835,7 +13838,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -13861,7 +13864,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -13887,7 +13890,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -13913,7 +13916,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -13939,7 +13942,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -13965,7 +13968,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -13991,7 +13994,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -14011,7 +14014,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -14031,7 +14034,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -14051,7 +14054,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -14072,7 +14075,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -14093,7 +14096,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -14114,7 +14117,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -14135,7 +14138,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -14156,7 +14159,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -14177,7 +14180,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -14198,7 +14201,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -14219,7 +14222,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -14240,7 +14243,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -14261,7 +14264,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -14282,7 +14285,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -14303,7 +14306,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -14324,7 +14327,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -14345,7 +14348,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -14366,7 +14369,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -14387,7 +14390,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -14408,7 +14411,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -14429,7 +14432,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -14450,7 +14453,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -14471,7 +14474,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -14480,7 +14483,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -14489,7 +14492,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -14498,7 +14501,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -14507,7 +14510,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -14516,7 +14519,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -14525,7 +14528,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -14534,7 +14537,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -14543,7 +14546,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -14552,7 +14555,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -14561,7 +14564,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -14570,7 +14573,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -14579,7 +14582,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -14588,7 +14591,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -14597,7 +14600,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -14606,7 +14609,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -14615,7 +14618,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -14624,7 +14627,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -14633,7 +14636,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -14642,7 +14645,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -14651,7 +14654,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -14660,7 +14663,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -14669,7 +14672,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -14678,7 +14681,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -14687,7 +14690,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -14696,7 +14699,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -14705,7 +14708,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -14714,7 +14717,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -14723,7 +14726,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -14732,7 +14735,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
